--- a/biology/Zoologie/Hesydrus_aurantius/Hesydrus_aurantius.xlsx
+++ b/biology/Zoologie/Hesydrus_aurantius/Hesydrus_aurantius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hesydrus aurantius est une espèce d'araignées aranéomorphes de la famille des Trechaleidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hesydrus aurantius est une espèce d'araignées aranéomorphes de la famille des Trechaleidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Bolivie, en Colombie et au Pérou[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Bolivie, en Colombie et au Pérou.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Silva en 2006 mesure 6,50 mm de long sur 4,40 mm de large et celle de la femelle mesure 5,95 mm de long sur 5,90 mm de large[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Silva en 2006 mesure 6,50 mm de long sur 4,40 mm de large et celle de la femelle mesure 5,95 mm de long sur 5,90 mm de large.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mello-Leitão, 1942 : Cinco aranhas novas do Perú. Revista Brasileira de Biologia, vol. 2, p. 429-434.</t>
         </is>
